--- a/figures/SupplementaryTable2.xlsx
+++ b/figures/SupplementaryTable2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliechow/Dropbox/criticalCell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364E912C-A9D7-9A49-940A-D7D707D96E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4E1C5F-98AD-4F4C-BAFF-8BEF54EE1009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22280" yWindow="1320" windowWidth="25000" windowHeight="21380" activeTab="4" xr2:uid="{866A474B-B649-AC4E-8997-A21DC25A684B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="12">
   <si>
     <t>k</t>
   </si>
@@ -58,12 +58,30 @@
   <si>
     <t>Silhouette difference</t>
   </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Random &lt; Initial, 1 sample t-test p-value</t>
+  </si>
+  <si>
+    <t>AvgInitialObjF</t>
+  </si>
+  <si>
+    <t>AvgFinalObjF</t>
+  </si>
+  <si>
+    <t>InitialObjF_pValue</t>
+  </si>
+  <si>
+    <t>FinalObjF_pValue</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -74,6 +92,13 @@
     <font>
       <sz val="12"/>
       <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,9 +124,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47B8114-47D7-9747-B2E1-F0F5AE2C6AF0}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B25" sqref="B25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -860,17 +890,386 @@
         <v>2080</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>250</v>
+      </c>
+      <c r="B26">
+        <v>359158.99512819899</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3.5374693031661699E-11</v>
+      </c>
+      <c r="D26">
+        <v>97205.900936175603</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1.6134635630299601E-11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>500</v>
+      </c>
+      <c r="B27">
+        <v>535214.35967432696</v>
+      </c>
+      <c r="C27" s="3">
+        <v>6.6419024429788304E-16</v>
+      </c>
+      <c r="D27">
+        <v>136801.503676386</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1.37215039105016E-12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>750</v>
+      </c>
+      <c r="B28">
+        <v>680695.76130682905</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3.2014736319892401E-18</v>
+      </c>
+      <c r="D28">
+        <v>205956.83985131799</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3.5422475844030701E-11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1000</v>
+      </c>
+      <c r="B29">
+        <v>807739.07815586601</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1.18418160532427E-19</v>
+      </c>
+      <c r="D29">
+        <v>295489.77555685001</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2.0910995880292501E-11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1250</v>
+      </c>
+      <c r="B30">
+        <v>922386.06331820099</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1.6645105704871899E-20</v>
+      </c>
+      <c r="D30">
+        <v>347102.12590918498</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2.7413251515193002E-12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1500</v>
+      </c>
+      <c r="B31">
+        <v>1025528.2018539</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4.0076623200024998E-21</v>
+      </c>
+      <c r="D31">
+        <v>394260.95854548598</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2.2538547962280799E-14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1750</v>
+      </c>
+      <c r="B32">
+        <v>1120628.1981180499</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1.3371200713052901E-21</v>
+      </c>
+      <c r="D32">
+        <v>428933.61171341699</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1.41971447102656E-14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2000</v>
+      </c>
+      <c r="B33">
+        <v>1209042.0659229299</v>
+      </c>
+      <c r="C33" s="3">
+        <v>5.6643478644555498E-22</v>
+      </c>
+      <c r="D33">
+        <v>459707.42742610798</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3.5636366533607402E-15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2250</v>
+      </c>
+      <c r="B34">
+        <v>1292189.3324760301</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2.8227418000134202E-22</v>
+      </c>
+      <c r="D34">
+        <v>484071.79408728902</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2.19557232467297E-16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2500</v>
+      </c>
+      <c r="B35">
+        <v>1371199.684834</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1.6186934082213201E-22</v>
+      </c>
+      <c r="D35">
+        <v>500064.68245272798</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1.6793514466709001E-16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2750</v>
+      </c>
+      <c r="B36">
+        <v>1446055.1300640299</v>
+      </c>
+      <c r="C36" s="3">
+        <v>9.7102783370752606E-23</v>
+      </c>
+      <c r="D36">
+        <v>514086.064387944</v>
+      </c>
+      <c r="E36" s="3">
+        <v>9.3555155319906894E-17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3000</v>
+      </c>
+      <c r="B37">
+        <v>1517295.30432927</v>
+      </c>
+      <c r="C37" s="3">
+        <v>6.21783904597667E-23</v>
+      </c>
+      <c r="D37">
+        <v>532839.14756175596</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2.1076309322174901E-17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>3250</v>
+      </c>
+      <c r="B38">
+        <v>1585635.57094857</v>
+      </c>
+      <c r="C38" s="3">
+        <v>4.2392454311715701E-23</v>
+      </c>
+      <c r="D38">
+        <v>549604.75300400006</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1.08105292328862E-19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>3500</v>
+      </c>
+      <c r="B39">
+        <v>1651487.22707872</v>
+      </c>
+      <c r="C39" s="3">
+        <v>3.12131763352367E-23</v>
+      </c>
+      <c r="D39">
+        <v>561452.27848882403</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2.54368410213538E-20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3750</v>
+      </c>
+      <c r="B40">
+        <v>1715019.98174339</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2.3758537321591599E-23</v>
+      </c>
+      <c r="D40">
+        <v>576428.87362252199</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1.49254983153267E-20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>4000</v>
+      </c>
+      <c r="B41">
+        <v>1776606.49401889</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1.90877728713226E-23</v>
+      </c>
+      <c r="D41">
+        <v>588905.27381237398</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6.11919966847507E-21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>4250</v>
+      </c>
+      <c r="B42">
+        <v>1836226.2010464999</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1.5501240614290299E-23</v>
+      </c>
+      <c r="D42">
+        <v>580512.16583296296</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2.03801328081303E-20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>4500</v>
+      </c>
+      <c r="B43">
+        <v>1893948.30324451</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1.27576390912657E-23</v>
+      </c>
+      <c r="D43">
+        <v>556984.48804361594</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2.5952787772341001E-20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>4750</v>
+      </c>
+      <c r="B44">
+        <v>1949799.1664873699</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1.06783825323514E-23</v>
+      </c>
+      <c r="D44">
+        <v>551588.67483195604</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3.0929107911611997E-20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>5000</v>
+      </c>
+      <c r="B45">
+        <v>2004064.5232539901</v>
+      </c>
+      <c r="C45" s="3">
+        <v>9.2276872049343395E-24</v>
+      </c>
+      <c r="D45">
+        <v>573657.55619909998</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1.09802919690495E-20</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B24:C24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D75A335-5A92-7143-88C0-FF489EE74562}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1311,17 +1710,447 @@
         <v>2519</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>250</v>
+      </c>
+      <c r="B26">
+        <v>57109.186366332899</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3.8936353344400099E-22</v>
+      </c>
+      <c r="D26">
+        <v>14431.5961029112</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2.7961199144880999E-17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>500</v>
+      </c>
+      <c r="B27">
+        <v>82488.301158066097</v>
+      </c>
+      <c r="C27" s="3">
+        <v>9.5125265687731201E-25</v>
+      </c>
+      <c r="D27">
+        <v>12839.5339468272</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1.58416715706424E-31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>750</v>
+      </c>
+      <c r="B28">
+        <v>101699.129381595</v>
+      </c>
+      <c r="C28" s="3">
+        <v>4.1607747552179602E-26</v>
+      </c>
+      <c r="D28">
+        <v>18623.524456220301</v>
+      </c>
+      <c r="E28" s="3">
+        <v>9.6935495568113099E-30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1000</v>
+      </c>
+      <c r="B29">
+        <v>117634.28405605</v>
+      </c>
+      <c r="C29" s="3">
+        <v>7.6371560532534902E-27</v>
+      </c>
+      <c r="D29">
+        <v>25572.478007793899</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5.4000416623134996E-29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1250</v>
+      </c>
+      <c r="B30">
+        <v>131351.86561199199</v>
+      </c>
+      <c r="C30" s="3">
+        <v>3.8401462262849899E-27</v>
+      </c>
+      <c r="D30">
+        <v>31980.816792901998</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2.9799360725874402E-28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1500</v>
+      </c>
+      <c r="B31">
+        <v>143496.11963143499</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2.88266323407578E-27</v>
+      </c>
+      <c r="D31">
+        <v>35963.548255773101</v>
+      </c>
+      <c r="E31" s="3">
+        <v>3.60051949336688E-28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1750</v>
+      </c>
+      <c r="B32">
+        <v>154336.83449554301</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2.52673971921797E-27</v>
+      </c>
+      <c r="D32">
+        <v>40243.442813334303</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3.8292614019132499E-28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2000</v>
+      </c>
+      <c r="B33">
+        <v>164146.037133595</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2.7495643097284201E-27</v>
+      </c>
+      <c r="D33">
+        <v>43022.2317449814</v>
+      </c>
+      <c r="E33" s="3">
+        <v>8.0286474066451794E-29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2250</v>
+      </c>
+      <c r="B34">
+        <v>173105.43361360201</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3.5631424272384598E-27</v>
+      </c>
+      <c r="D34">
+        <v>44422.226071965</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1.08926940941939E-28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2500</v>
+      </c>
+      <c r="B35">
+        <v>181272.437104638</v>
+      </c>
+      <c r="C35" s="3">
+        <v>4.7989206964900297E-27</v>
+      </c>
+      <c r="D35">
+        <v>46331.303070531801</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1.1937888407603001E-28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2750</v>
+      </c>
+      <c r="B36">
+        <v>188807.41041834201</v>
+      </c>
+      <c r="C36" s="3">
+        <v>6.2839139863772702E-27</v>
+      </c>
+      <c r="D36">
+        <v>48821.930763127799</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2.1388949053223299E-28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3000</v>
+      </c>
+      <c r="B37">
+        <v>195820.295433419</v>
+      </c>
+      <c r="C37" s="3">
+        <v>8.1313705042817407E-27</v>
+      </c>
+      <c r="D37">
+        <v>51343.440933698497</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2.3856043170553799E-28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>3250</v>
+      </c>
+      <c r="B38">
+        <v>202384.33155215299</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1.0303776117149299E-26</v>
+      </c>
+      <c r="D38">
+        <v>54012.295659172203</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2.2068410444776998E-28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>3500</v>
+      </c>
+      <c r="B39">
+        <v>208537.72209093301</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1.27736368279952E-26</v>
+      </c>
+      <c r="D39">
+        <v>60128.809212817301</v>
+      </c>
+      <c r="E39" s="3">
+        <v>4.4418254308888304E-28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3750</v>
+      </c>
+      <c r="B40">
+        <v>214315.87703979501</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1.5784710348882699E-26</v>
+      </c>
+      <c r="D40">
+        <v>66874.310694230793</v>
+      </c>
+      <c r="E40" s="3">
+        <v>5.8984254550531796E-28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>4000</v>
+      </c>
+      <c r="B41">
+        <v>219768.12155359</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1.9344620724127701E-26</v>
+      </c>
+      <c r="D41">
+        <v>66549.277321469795</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7.2191248630491404E-28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>4250</v>
+      </c>
+      <c r="B42">
+        <v>224922.50289406799</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2.3213034066408801E-26</v>
+      </c>
+      <c r="D42">
+        <v>69446.749117554602</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1.38458518287009E-27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>4500</v>
+      </c>
+      <c r="B43">
+        <v>229849.28629951601</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2.75882646170106E-26</v>
+      </c>
+      <c r="D43">
+        <v>74892.100420039205</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2.0447984368689299E-27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>4750</v>
+      </c>
+      <c r="B44">
+        <v>234559.37558317199</v>
+      </c>
+      <c r="C44" s="3">
+        <v>3.3149947657611502E-26</v>
+      </c>
+      <c r="D44">
+        <v>73830.391926840195</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1.12273680979278E-27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>5000</v>
+      </c>
+      <c r="B45">
+        <v>239049.107102426</v>
+      </c>
+      <c r="C45" s="3">
+        <v>4.0080293513275697E-26</v>
+      </c>
+      <c r="D45">
+        <v>74132.503010310698</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6.8785719891634896E-27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B24:C24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E711C10-841A-D143-93AE-391AAABC2A60}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1377,7 +2206,7 @@
         <v>0.35153754277999999</v>
       </c>
       <c r="E3">
-        <f>D3-D2</f>
+        <f t="shared" ref="E3:E21" si="0">D3-D2</f>
         <v>-0.48662528714299996</v>
       </c>
       <c r="F3">
@@ -1398,7 +2227,7 @@
         <v>0.38380513189400001</v>
       </c>
       <c r="E4">
-        <f>D4-D3</f>
+        <f t="shared" si="0"/>
         <v>3.2267589114000017E-2</v>
       </c>
       <c r="F4">
@@ -1419,7 +2248,7 @@
         <v>0.43619015048999998</v>
       </c>
       <c r="E5">
-        <f>D5-D4</f>
+        <f t="shared" si="0"/>
         <v>5.2385018595999977E-2</v>
       </c>
       <c r="F5">
@@ -1440,7 +2269,7 @@
         <v>0.445236170057</v>
       </c>
       <c r="E6">
-        <f>D6-D5</f>
+        <f t="shared" si="0"/>
         <v>9.0460195670000187E-3</v>
       </c>
       <c r="F6">
@@ -1461,7 +2290,7 @@
         <v>0.34912981309199997</v>
       </c>
       <c r="E7">
-        <f>D7-D6</f>
+        <f t="shared" si="0"/>
         <v>-9.6106356965000028E-2</v>
       </c>
       <c r="F7">
@@ -1482,7 +2311,7 @@
         <v>0.44359581279999999</v>
       </c>
       <c r="E8">
-        <f>D8-D7</f>
+        <f t="shared" si="0"/>
         <v>9.4465999708000015E-2</v>
       </c>
       <c r="F8">
@@ -1503,7 +2332,7 @@
         <v>0.43399253641199997</v>
       </c>
       <c r="E9">
-        <f>D9-D8</f>
+        <f t="shared" si="0"/>
         <v>-9.6032763880000149E-3</v>
       </c>
       <c r="F9">
@@ -1524,7 +2353,7 @@
         <v>0.438564214565</v>
       </c>
       <c r="E10">
-        <f>D10-D9</f>
+        <f t="shared" si="0"/>
         <v>4.571678153000025E-3</v>
       </c>
       <c r="F10">
@@ -1545,7 +2374,7 @@
         <v>0.45572227571700002</v>
       </c>
       <c r="E11">
-        <f>D11-D10</f>
+        <f t="shared" si="0"/>
         <v>1.7158061152000026E-2</v>
       </c>
       <c r="F11">
@@ -1566,7 +2395,7 @@
         <v>0.44358825536899998</v>
       </c>
       <c r="E12">
-        <f>D12-D11</f>
+        <f t="shared" si="0"/>
         <v>-1.2134020348000041E-2</v>
       </c>
       <c r="F12">
@@ -1587,7 +2416,7 @@
         <v>0.41128629914999998</v>
       </c>
       <c r="E13">
-        <f>D13-D12</f>
+        <f t="shared" si="0"/>
         <v>-3.2301956219000005E-2</v>
       </c>
       <c r="F13">
@@ -1608,7 +2437,7 @@
         <v>0.43084896412099999</v>
       </c>
       <c r="E14">
-        <f>D14-D13</f>
+        <f t="shared" si="0"/>
         <v>1.956266497100001E-2</v>
       </c>
       <c r="F14">
@@ -1629,7 +2458,7 @@
         <v>0.40110467694700003</v>
       </c>
       <c r="E15">
-        <f>D15-D14</f>
+        <f t="shared" si="0"/>
         <v>-2.9744287173999961E-2</v>
       </c>
       <c r="F15">
@@ -1650,7 +2479,7 @@
         <v>0.41991589962199999</v>
       </c>
       <c r="E16">
-        <f>D16-D15</f>
+        <f t="shared" si="0"/>
         <v>1.8811222674999961E-2</v>
       </c>
       <c r="F16">
@@ -1671,7 +2500,7 @@
         <v>0.41214439866800001</v>
       </c>
       <c r="E17">
-        <f>D17-D16</f>
+        <f t="shared" si="0"/>
         <v>-7.7715009539999769E-3</v>
       </c>
       <c r="F17">
@@ -1692,7 +2521,7 @@
         <v>0.39629743071200002</v>
       </c>
       <c r="E18">
-        <f>D18-D17</f>
+        <f t="shared" si="0"/>
         <v>-1.5846967955999991E-2</v>
       </c>
       <c r="F18">
@@ -1713,7 +2542,7 @@
         <v>0.28755711541099999</v>
       </c>
       <c r="E19">
-        <f>D19-D18</f>
+        <f t="shared" si="0"/>
         <v>-0.10874031530100003</v>
       </c>
       <c r="F19">
@@ -1734,7 +2563,7 @@
         <v>0.39523671762500001</v>
       </c>
       <c r="E20">
-        <f>D20-D19</f>
+        <f t="shared" si="0"/>
         <v>0.10767960221400003</v>
       </c>
       <c r="F20">
@@ -1755,24 +2584,393 @@
         <v>0.37763964700199998</v>
       </c>
       <c r="E21">
-        <f>D21-D20</f>
+        <f t="shared" si="0"/>
         <v>-1.7597070623000033E-2</v>
       </c>
       <c r="F21">
         <v>2511</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>250</v>
+      </c>
+      <c r="B26">
+        <v>116637.956854987</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4.0614643700663198E-25</v>
+      </c>
+      <c r="D26">
+        <v>30403.014051184698</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1.82493582197053E-22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>500</v>
+      </c>
+      <c r="B27">
+        <v>179241.334209211</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2.6543216826896301E-26</v>
+      </c>
+      <c r="D27">
+        <v>42955.069189704896</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1.3275836587711601E-18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>750</v>
+      </c>
+      <c r="B28">
+        <v>229008.97719785199</v>
+      </c>
+      <c r="C28" s="3">
+        <v>6.8595637953400705E-27</v>
+      </c>
+      <c r="D28">
+        <v>58797.384455806598</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2.30024112786822E-21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1000</v>
+      </c>
+      <c r="B29">
+        <v>271355.370945059</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2.07224042179555E-27</v>
+      </c>
+      <c r="D29">
+        <v>76671.382337952004</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5.0754386237195501E-26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1250</v>
+      </c>
+      <c r="B30">
+        <v>308795.86703313002</v>
+      </c>
+      <c r="C30" s="3">
+        <v>7.8471101492226601E-28</v>
+      </c>
+      <c r="D30">
+        <v>92572.382047531399</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2.3428046372625201E-26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1500</v>
+      </c>
+      <c r="B31">
+        <v>342107.60395008902</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3.71784892660149E-28</v>
+      </c>
+      <c r="D31">
+        <v>107767.845099435</v>
+      </c>
+      <c r="E31" s="3">
+        <v>8.1636378687681495E-27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1750</v>
+      </c>
+      <c r="B32">
+        <v>372057.678036044</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2.0496838352034401E-28</v>
+      </c>
+      <c r="D32">
+        <v>120013.85714047001</v>
+      </c>
+      <c r="E32" s="3">
+        <v>8.83846065412618E-27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2000</v>
+      </c>
+      <c r="B33">
+        <v>399443.13721119799</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1.28444154568653E-28</v>
+      </c>
+      <c r="D33">
+        <v>128031.359306806</v>
+      </c>
+      <c r="E33" s="3">
+        <v>6.01474003262359E-27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2250</v>
+      </c>
+      <c r="B34">
+        <v>424761.09343882202</v>
+      </c>
+      <c r="C34" s="3">
+        <v>9.3922982809015997E-29</v>
+      </c>
+      <c r="D34">
+        <v>137581.22815312701</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1.10154507387991E-27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2500</v>
+      </c>
+      <c r="B35">
+        <v>448441.24315721099</v>
+      </c>
+      <c r="C35" s="3">
+        <v>7.9493587173547895E-29</v>
+      </c>
+      <c r="D35">
+        <v>144183.97562642701</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4.77903322876874E-28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2750</v>
+      </c>
+      <c r="B36">
+        <v>470606.12673977099</v>
+      </c>
+      <c r="C36" s="3">
+        <v>7.10969373236883E-29</v>
+      </c>
+      <c r="D36">
+        <v>147884.41928797899</v>
+      </c>
+      <c r="E36" s="3">
+        <v>9.8908537702079692E-28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3000</v>
+      </c>
+      <c r="B37">
+        <v>491442.40327902301</v>
+      </c>
+      <c r="C37" s="3">
+        <v>6.5721241927627704E-29</v>
+      </c>
+      <c r="D37">
+        <v>153252.55070431199</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2.0045940328209301E-27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>3250</v>
+      </c>
+      <c r="B38">
+        <v>511219.321320888</v>
+      </c>
+      <c r="C38" s="3">
+        <v>6.5684254576784106E-29</v>
+      </c>
+      <c r="D38">
+        <v>155938.298095965</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2.8939840157227399E-27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>3500</v>
+      </c>
+      <c r="B39">
+        <v>530063.22087252396</v>
+      </c>
+      <c r="C39" s="3">
+        <v>7.0026291412632705E-29</v>
+      </c>
+      <c r="D39">
+        <v>162641.49653848101</v>
+      </c>
+      <c r="E39" s="3">
+        <v>3.9524198200148201E-27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3750</v>
+      </c>
+      <c r="B40">
+        <v>548081.99318414298</v>
+      </c>
+      <c r="C40" s="3">
+        <v>8.0191135231120797E-29</v>
+      </c>
+      <c r="D40">
+        <v>160253.425648573</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1.19504751076136E-26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>4000</v>
+      </c>
+      <c r="B41">
+        <v>565482.37708692404</v>
+      </c>
+      <c r="C41" s="3">
+        <v>9.9758970117602898E-29</v>
+      </c>
+      <c r="D41">
+        <v>165547.94936120501</v>
+      </c>
+      <c r="E41" s="3">
+        <v>9.9441724721858393E-27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>4250</v>
+      </c>
+      <c r="B42">
+        <v>582233.85715913901</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1.2933112552159199E-28</v>
+      </c>
+      <c r="D42">
+        <v>167434.28687355699</v>
+      </c>
+      <c r="E42" s="3">
+        <v>4.5388393015181603E-27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>4500</v>
+      </c>
+      <c r="B43">
+        <v>598412.993386338</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1.72212645406433E-28</v>
+      </c>
+      <c r="D43">
+        <v>171190.56831373699</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2.5642609912507E-27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>4750</v>
+      </c>
+      <c r="B44">
+        <v>614011.96679551096</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2.3134972291178902E-28</v>
+      </c>
+      <c r="D44">
+        <v>158530.994348145</v>
+      </c>
+      <c r="E44" s="3">
+        <v>6.8927687244875097E-28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>5000</v>
+      </c>
+      <c r="B45">
+        <v>629095.82541001996</v>
+      </c>
+      <c r="C45" s="3">
+        <v>3.1468375114751699E-28</v>
+      </c>
+      <c r="D45">
+        <v>166497.85885955501</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3.8597193357098302E-26</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B24:C24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABC4F11-84FB-0B4F-86E9-1A6B9E999279}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2213,17 +3411,386 @@
         <v>3151</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>250</v>
+      </c>
+      <c r="B26">
+        <v>49092.247025646997</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4.0855296614732301E-23</v>
+      </c>
+      <c r="D26">
+        <v>25345.264341472899</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1.00629801801297E-14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>500</v>
+      </c>
+      <c r="B27">
+        <v>84487.689033356597</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2.4795397258310301E-24</v>
+      </c>
+      <c r="D27">
+        <v>35065.044317870401</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3.1268195680704401E-14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>750</v>
+      </c>
+      <c r="B28">
+        <v>115206.290399472</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1.18568476270914E-24</v>
+      </c>
+      <c r="D28">
+        <v>39162.828859879599</v>
+      </c>
+      <c r="E28" s="3">
+        <v>5.4152807967601395E-13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1000</v>
+      </c>
+      <c r="B29">
+        <v>143160.534169839</v>
+      </c>
+      <c r="C29" s="3">
+        <v>9.4008267446040796E-25</v>
+      </c>
+      <c r="D29">
+        <v>46840.794315658</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5.1087033477260497E-20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1250</v>
+      </c>
+      <c r="B30">
+        <v>169261.204040813</v>
+      </c>
+      <c r="C30" s="3">
+        <v>6.9230726709201498E-25</v>
+      </c>
+      <c r="D30">
+        <v>52943.738626579398</v>
+      </c>
+      <c r="E30" s="3">
+        <v>9.4205868573635702E-20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1500</v>
+      </c>
+      <c r="B31">
+        <v>194269.81585964499</v>
+      </c>
+      <c r="C31" s="3">
+        <v>5.3017071390107502E-25</v>
+      </c>
+      <c r="D31">
+        <v>58319.424417742397</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2.7797234054714201E-20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1750</v>
+      </c>
+      <c r="B32">
+        <v>218504.34077338499</v>
+      </c>
+      <c r="C32" s="3">
+        <v>4.6431803131415796E-25</v>
+      </c>
+      <c r="D32">
+        <v>64503.750419269898</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2.33379077262966E-20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2000</v>
+      </c>
+      <c r="B33">
+        <v>241961.20121998101</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4.2466158345946804E-25</v>
+      </c>
+      <c r="D33">
+        <v>69085.604563118904</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1.04082763434244E-21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2250</v>
+      </c>
+      <c r="B34">
+        <v>264856.26610538701</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3.9874858689778502E-25</v>
+      </c>
+      <c r="D34">
+        <v>76027.711321142895</v>
+      </c>
+      <c r="E34" s="3">
+        <v>4.7624063550343704E-24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2500</v>
+      </c>
+      <c r="B35">
+        <v>287155.24561342498</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3.8078464150077501E-25</v>
+      </c>
+      <c r="D35">
+        <v>86718.758594679603</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2.2644006615174399E-25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2750</v>
+      </c>
+      <c r="B36">
+        <v>308908.41604224098</v>
+      </c>
+      <c r="C36" s="3">
+        <v>3.8415779588087799E-25</v>
+      </c>
+      <c r="D36">
+        <v>105007.77773632199</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2.58654699192847E-25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3000</v>
+      </c>
+      <c r="B37">
+        <v>330241.666048688</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3.92562261138926E-25</v>
+      </c>
+      <c r="D37">
+        <v>117054.545645723</v>
+      </c>
+      <c r="E37" s="3">
+        <v>5.3747026475570996E-25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>3250</v>
+      </c>
+      <c r="B38">
+        <v>351180.55421451002</v>
+      </c>
+      <c r="C38" s="3">
+        <v>4.0690095342253198E-25</v>
+      </c>
+      <c r="D38">
+        <v>129246.762769625</v>
+      </c>
+      <c r="E38" s="3">
+        <v>9.8915843557491699E-25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>3500</v>
+      </c>
+      <c r="B39">
+        <v>371643.42599817802</v>
+      </c>
+      <c r="C39" s="3">
+        <v>4.1246055357771401E-25</v>
+      </c>
+      <c r="D39">
+        <v>143945.068423397</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2.5266681728049301E-24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3750</v>
+      </c>
+      <c r="B40">
+        <v>391689.76053225098</v>
+      </c>
+      <c r="C40" s="3">
+        <v>4.1995851655043204E-25</v>
+      </c>
+      <c r="D40">
+        <v>162915.480278123</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1.81705843373487E-25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>4000</v>
+      </c>
+      <c r="B41">
+        <v>411269.062323739</v>
+      </c>
+      <c r="C41" s="3">
+        <v>4.3891095732241396E-25</v>
+      </c>
+      <c r="D41">
+        <v>192532.872221481</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4.2156494673642E-24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>4250</v>
+      </c>
+      <c r="B42">
+        <v>430427.55204323097</v>
+      </c>
+      <c r="C42" s="3">
+        <v>4.6009763367907903E-25</v>
+      </c>
+      <c r="D42">
+        <v>212153.92147716499</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1.19167740487413E-23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>4500</v>
+      </c>
+      <c r="B43">
+        <v>449106.797516377</v>
+      </c>
+      <c r="C43" s="3">
+        <v>4.8121144327905598E-25</v>
+      </c>
+      <c r="D43">
+        <v>238314.63223784501</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1.0954042517821E-23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>4750</v>
+      </c>
+      <c r="B44">
+        <v>467303.82472813199</v>
+      </c>
+      <c r="C44" s="3">
+        <v>5.0106992235082799E-25</v>
+      </c>
+      <c r="D44">
+        <v>285242.72517744702</v>
+      </c>
+      <c r="E44" s="3">
+        <v>5.1606932908195503E-23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>5000</v>
+      </c>
+      <c r="B45">
+        <v>485014.15808790701</v>
+      </c>
+      <c r="C45" s="3">
+        <v>5.1772147918607102E-25</v>
+      </c>
+      <c r="D45">
+        <v>295386.27503623499</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1.01127399874962E-23</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B24:C24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1791416-D9C9-5D4C-A807-CF6E546EC112}">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="B26" sqref="B26:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2279,7 +3846,7 @@
         <v>0.33610864286100001</v>
       </c>
       <c r="E3">
-        <f>D3-D2</f>
+        <f t="shared" ref="E3:E21" si="0">D3-D2</f>
         <v>1.7634926721000033E-2</v>
       </c>
       <c r="F3">
@@ -2300,7 +3867,7 @@
         <v>0.38895364589999998</v>
       </c>
       <c r="E4">
-        <f>D4-D3</f>
+        <f t="shared" si="0"/>
         <v>5.2845003038999971E-2</v>
       </c>
       <c r="F4">
@@ -2321,7 +3888,7 @@
         <v>0.37806322409300003</v>
       </c>
       <c r="E5">
-        <f>D5-D4</f>
+        <f t="shared" si="0"/>
         <v>-1.089042180699995E-2</v>
       </c>
       <c r="F5">
@@ -2342,7 +3909,7 @@
         <v>0.388760899248</v>
       </c>
       <c r="E6">
-        <f>D6-D5</f>
+        <f t="shared" si="0"/>
         <v>1.0697675154999975E-2</v>
       </c>
       <c r="F6">
@@ -2363,7 +3930,7 @@
         <v>0.36872326497800001</v>
       </c>
       <c r="E7">
-        <f>D7-D6</f>
+        <f t="shared" si="0"/>
         <v>-2.0037634269999993E-2</v>
       </c>
       <c r="F7">
@@ -2384,7 +3951,7 @@
         <v>0.45529838837800002</v>
       </c>
       <c r="E8">
-        <f>D8-D7</f>
+        <f t="shared" si="0"/>
         <v>8.6575123400000009E-2</v>
       </c>
       <c r="F8">
@@ -2405,7 +3972,7 @@
         <v>0.44953955756000002</v>
       </c>
       <c r="E9">
-        <f>D9-D8</f>
+        <f t="shared" si="0"/>
         <v>-5.7588308179999936E-3</v>
       </c>
       <c r="F9">
@@ -2426,7 +3993,7 @@
         <v>0.381149269841</v>
       </c>
       <c r="E10">
-        <f>D10-D9</f>
+        <f t="shared" si="0"/>
         <v>-6.839028771900002E-2</v>
       </c>
       <c r="F10">
@@ -2447,7 +4014,7 @@
         <v>0.46177312639599999</v>
       </c>
       <c r="E11">
-        <f>D11-D10</f>
+        <f t="shared" si="0"/>
         <v>8.0623856554999984E-2</v>
       </c>
       <c r="F11">
@@ -2468,7 +4035,7 @@
         <v>0.46661858164999998</v>
       </c>
       <c r="E12">
-        <f>D12-D11</f>
+        <f t="shared" si="0"/>
         <v>4.8454552539999862E-3</v>
       </c>
       <c r="F12">
@@ -2489,7 +4056,7 @@
         <v>0.40043023802700001</v>
       </c>
       <c r="E13">
-        <f>D13-D12</f>
+        <f t="shared" si="0"/>
         <v>-6.6188343622999968E-2</v>
       </c>
       <c r="F13">
@@ -2510,7 +4077,7 @@
         <v>0.42548187305500001</v>
       </c>
       <c r="E14">
-        <f>D14-D13</f>
+        <f t="shared" si="0"/>
         <v>2.5051635028000008E-2</v>
       </c>
       <c r="F14">
@@ -2531,7 +4098,7 @@
         <v>0.389614231614</v>
       </c>
       <c r="E15">
-        <f>D15-D14</f>
+        <f t="shared" si="0"/>
         <v>-3.586764144100002E-2</v>
       </c>
       <c r="F15">
@@ -2552,7 +4119,7 @@
         <v>0.45903717026500002</v>
       </c>
       <c r="E16">
-        <f>D16-D15</f>
+        <f t="shared" si="0"/>
         <v>6.9422938651000021E-2</v>
       </c>
       <c r="F16">
@@ -2573,7 +4140,7 @@
         <v>0.45133314045799999</v>
       </c>
       <c r="E17">
-        <f>D17-D16</f>
+        <f t="shared" si="0"/>
         <v>-7.7040298070000235E-3</v>
       </c>
       <c r="F17">
@@ -2594,7 +4161,7 @@
         <v>0.43106539056499998</v>
       </c>
       <c r="E18">
-        <f>D18-D17</f>
+        <f t="shared" si="0"/>
         <v>-2.0267749893000009E-2</v>
       </c>
       <c r="F18">
@@ -2615,7 +4182,7 @@
         <v>0.436822615927</v>
       </c>
       <c r="E19">
-        <f>D19-D18</f>
+        <f t="shared" si="0"/>
         <v>5.757225362000018E-3</v>
       </c>
       <c r="F19">
@@ -2636,7 +4203,7 @@
         <v>0.41127519159300002</v>
       </c>
       <c r="E20">
-        <f>D20-D19</f>
+        <f t="shared" si="0"/>
         <v>-2.554742433399998E-2</v>
       </c>
       <c r="F20">
@@ -2657,26 +4224,389 @@
         <v>0.43714632768200001</v>
       </c>
       <c r="E21">
-        <f>D21-D20</f>
+        <f t="shared" si="0"/>
         <v>2.5871136088999991E-2</v>
       </c>
       <c r="F21">
         <v>2940</v>
       </c>
     </row>
-    <row r="36" spans="17:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>250</v>
+      </c>
+      <c r="B26">
+        <v>59993.067566885598</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3.9713642328370801E-30</v>
+      </c>
+      <c r="D26">
+        <v>30608.173281677002</v>
+      </c>
+      <c r="E26" s="3">
+        <v>8.3053307781693099E-24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>500</v>
+      </c>
+      <c r="B27">
+        <v>103485.834439557</v>
+      </c>
+      <c r="C27" s="3">
+        <v>7.3849378268653204E-30</v>
+      </c>
+      <c r="D27">
+        <v>42501.790287680997</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6.6711362285232302E-26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>750</v>
+      </c>
+      <c r="B28">
+        <v>140571.98467850001</v>
+      </c>
+      <c r="C28" s="3">
+        <v>9.2303077804360205E-30</v>
+      </c>
+      <c r="D28">
+        <v>48942.7011897501</v>
+      </c>
+      <c r="E28" s="3">
+        <v>5.5839937374456395E-26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1000</v>
+      </c>
+      <c r="B29">
+        <v>174603.82054696401</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2.8058698165145101E-29</v>
+      </c>
+      <c r="D29">
+        <v>57861.945362586201</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5.2797780646637598E-27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1250</v>
+      </c>
+      <c r="B30">
+        <v>206535.922098496</v>
+      </c>
+      <c r="C30" s="3">
+        <v>8.0408252589012195E-29</v>
+      </c>
+      <c r="D30">
+        <v>63352.243479489996</v>
+      </c>
+      <c r="E30" s="3">
+        <v>3.5390814511929702E-16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1500</v>
+      </c>
+      <c r="B31">
+        <v>236941.70572601701</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1.69098366723651E-28</v>
+      </c>
+      <c r="D31">
+        <v>73253.117189644996</v>
+      </c>
+      <c r="E31" s="3">
+        <v>9.1895873628834897E-16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1750</v>
+      </c>
+      <c r="B32">
+        <v>266279.71926227899</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3.1135231990788599E-28</v>
+      </c>
+      <c r="D32">
+        <v>82719.234157282001</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4.0880581459613003E-15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2000</v>
+      </c>
+      <c r="B33">
+        <v>294705.30527527299</v>
+      </c>
+      <c r="C33" s="3">
+        <v>5.5518737226999201E-28</v>
+      </c>
+      <c r="D33">
+        <v>88810.258694532706</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4.2167163719766698E-17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2250</v>
+      </c>
+      <c r="B34">
+        <v>322321.01689320098</v>
+      </c>
+      <c r="C34" s="3">
+        <v>9.0654427073841009E-28</v>
+      </c>
+      <c r="D34">
+        <v>93632.628884586797</v>
+      </c>
+      <c r="E34" s="3">
+        <v>4.2515113170968901E-19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2500</v>
+      </c>
+      <c r="B35">
+        <v>349302.47161323897</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1.4389982233484699E-27</v>
+      </c>
+      <c r="D35">
+        <v>108660.05320944201</v>
+      </c>
+      <c r="E35" s="3">
+        <v>9.3070351986107403E-20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2750</v>
+      </c>
+      <c r="B36">
+        <v>375622.22682327399</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2.1325758023717599E-27</v>
+      </c>
+      <c r="D36">
+        <v>117952.51576138</v>
+      </c>
+      <c r="E36" s="3">
+        <v>7.6108702749857097E-20</v>
+      </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="17:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3000</v>
+      </c>
+      <c r="B37">
+        <v>401297.09718504298</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3.0052718140281001E-27</v>
+      </c>
+      <c r="D37">
+        <v>139372.98146642899</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2.5842881934193199E-20</v>
+      </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="17:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>3250</v>
+      </c>
+      <c r="B38">
+        <v>426459.58160368702</v>
+      </c>
+      <c r="C38" s="3">
+        <v>4.0969128490899802E-27</v>
+      </c>
+      <c r="D38">
+        <v>156963.630465886</v>
+      </c>
+      <c r="E38" s="3">
+        <v>3.6023299537595997E-23</v>
+      </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>3500</v>
+      </c>
+      <c r="B39">
+        <v>451084.78251384798</v>
+      </c>
+      <c r="C39" s="3">
+        <v>5.3454274282396001E-27</v>
+      </c>
+      <c r="D39">
+        <v>176043.142104069</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1.10333183775335E-22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3750</v>
+      </c>
+      <c r="B40">
+        <v>475134.16855682601</v>
+      </c>
+      <c r="C40" s="3">
+        <v>6.8341963540352993E-27</v>
+      </c>
+      <c r="D40">
+        <v>203213.52699931699</v>
+      </c>
+      <c r="E40" s="3">
+        <v>3.8752199686355998E-23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>4000</v>
+      </c>
+      <c r="B41">
+        <v>498523.06981436501</v>
+      </c>
+      <c r="C41" s="3">
+        <v>8.5230428297843598E-27</v>
+      </c>
+      <c r="D41">
+        <v>230884.99940816301</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3.6834337168141399E-22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>4250</v>
+      </c>
+      <c r="B42">
+        <v>521361.79925019201</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1.0370855245372101E-26</v>
+      </c>
+      <c r="D42">
+        <v>251932.66296345901</v>
+      </c>
+      <c r="E42" s="3">
+        <v>5.9260631220634399E-22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>4500</v>
+      </c>
+      <c r="B43">
+        <v>543686.26042345795</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1.24549408920046E-26</v>
+      </c>
+      <c r="D43">
+        <v>269842.01528454799</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3.6659174248630401E-22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>4750</v>
+      </c>
+      <c r="B44">
+        <v>565485.32810259506</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1.4827469764938701E-26</v>
+      </c>
+      <c r="D44">
+        <v>292313.67066378001</v>
+      </c>
+      <c r="E44" s="3">
+        <v>7.8401896155292898E-21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>5000</v>
+      </c>
+      <c r="B45">
+        <v>586719.32858060696</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1.7460163659626201E-26</v>
+      </c>
+      <c r="D45">
+        <v>329539.85205287399</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4.1950843601859798E-20</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B24:C24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>